--- a/projects/SSST-covid-classify-misinfo/SSST_metadata.xlsx
+++ b/projects/SSST-covid-classify-misinfo/SSST_metadata.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tvedt/Documents/GitHub/sva-codelib/projects/SSST_Norwegian-main/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tvedt/Documents/GitHub/sva-codelib/projects/SSST-covid-classify-misinfo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB0D32E-70B2-6A4E-9C5B-3382352F63D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9BEAB7D-2886-8A46-B8FD-3891E13F4D85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3940" yWindow="2460" windowWidth="21600" windowHeight="11300" xr2:uid="{F827F68C-D044-4D28-A869-926D634A2D1D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>title</t>
   </si>
@@ -65,19 +65,34 @@
     <t>R</t>
   </si>
   <si>
-    <t>Sosiale medier, tekstanalyse, misinformasjon</t>
-  </si>
-  <si>
     <t>Henter og klargjør Twitter data, og trener en semi-supervised self-training klassifiaksjonsmodell for å gjenkjenne misinformasjon. Les mer her: https://doi.org/10.1007/s42001-025-00367-x</t>
   </si>
   <si>
-    <t>API, data wrangling, maskinlæring, tekstklassifisering</t>
-  </si>
-  <si>
     <t>text corpus</t>
   </si>
   <si>
     <t>COVID-19 klassifikasjon av misinformasjon</t>
+  </si>
+  <si>
+    <t>API</t>
+  </si>
+  <si>
+    <t>data wrangling</t>
+  </si>
+  <si>
+    <t>maskinlæring</t>
+  </si>
+  <si>
+    <t>tekstklassifisering</t>
+  </si>
+  <si>
+    <t>Sosiale medier</t>
+  </si>
+  <si>
+    <t>tekstanalyse</t>
+  </si>
+  <si>
+    <t>misinformasjon</t>
   </si>
 </sst>
 </file>
@@ -449,23 +464,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F649E895-9DF7-4D2C-8A5F-54D7F02E5CB6}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -473,7 +488,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -481,36 +496,51 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
